--- a/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (池田愛恵).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
   <si>
     <t>氏名</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>雛形を読みながら画面を作っていったが忘れている部分が多く大変だった。講義資料等を参考にして空いている時間に開発を進めていきたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。実装を進めてください。実装に3～4人割り当てたいと思います。どこを担当するかを話し合いで決めてください。また、進捗状況をLINEにて連絡をお願いします。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。納期まで時間がないので、他の人と協力して実装を進めてください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。GitHubで管理するのは良いと思います。実装に関しては必須機能を先に開発してください。</t>
   </si>
 </sst>
 </file>
@@ -13813,19 +13822,21 @@
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -13834,7 +13845,9 @@
       <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -13850,7 +13863,9 @@
       <c r="A24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
